--- a/data_augmentation/Augmentation Experiment Results.xlsx
+++ b/data_augmentation/Augmentation Experiment Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstra\Documents\GitHub\nuclei\data_augmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{284D653F-92FE-4B0F-91D5-2CD6522A14DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3F4C23DB-DBB5-466B-A167-7F4BE30A73C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="210" activeTab="1" xr2:uid="{F804EED9-66D2-473B-B298-A3490873923A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Description</t>
   </si>
@@ -163,6 +163,80 @@
                 iaa.Flipud(0.5),
                 iaa.Multiply((0.5, 1.5), per_channel=0.5),
                 ])</t>
+  </si>
+  <si>
+    <t>augmentor = iaa.SomeOf((0, 1), [
+        iaa.Fliplr(0.5),
+        iaa.Flipud(0.5),
+        iaa.OneOf([iaa.Affine(rotate=90),
+                    iaa.Affine(rotate=180),
+                    iaa.Affine(rotate=270)]),
+    ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+                iaa.Fliplr(0.5),
+                iaa.Flipud(0.5),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+                iaa.Fliplr(0.5),
+                iaa.Flipud(0.5),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                iaa.GaussianBlur(sigma=(0.0, 2.0)),
+                ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+                iaa.Fliplr(0.5),
+                iaa.Flipud(0.5),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                iaa.GaussianBlur(sigma=(0.0, 2.0)),
+                iaa.Affine(shear=(-20, 20))
+                ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 1), [
+        iaa.Fliplr(0.5),  # horizontal flip
+        iaa.Flipud(0.5),  # vertical flip
+        iaa.Affine(shear=(-20, 20)),
+        iaa.Affine(rotate=(-45, 45)),
+        iaa.Multiply((0.5, 1.5), per_channel=0.5),  # lighten or darken
+    ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+                iaa.Fliplr(0.5),
+                iaa.Flipud(0.5),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                iaa.Affine(shear=(-20, 20))
+                ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+        iaa.Fliplr(0.5),  # horizontal flip
+        iaa.Flipud(0.5),  # vertical flip
+        iaa.Affine(shear=(-20, 20)),
+        iaa.Affine(rotate=(-45, 45)),
+        iaa.Multiply((0.5, 1.5), per_channel=0.5),  # lighten or darken
+    ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+                iaa.Flipud(1.0),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                iaa.Affine(shear=(-20, 20))
+                ])</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+        iaa.Fliplr(1.0),  # horizontal flip
+        iaa.Flipud(1.0),  # vertical flip
+        iaa.Multiply((0.5, 1.5), per_channel=0.5),  # lighten or darken
+    ])\</t>
   </si>
 </sst>
 </file>
@@ -553,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CF53CF-3DCD-471C-8B21-E7C555C740F5}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -909,6 +983,50 @@
         <v>36</v>
       </c>
     </row>
+    <row r="35" spans="1:4" ht="99.75">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="114">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0.1202</v>
+      </c>
+      <c r="C36">
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="114">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>0.1217</v>
+      </c>
+      <c r="C37">
+        <v>0.58179999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="85.5">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -917,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE8C8E5-84A3-4B5D-8625-D454A46577A7}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1170,6 +1288,79 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
+    <row r="15" spans="1:9" ht="114">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>0.219</v>
+      </c>
+      <c r="C15">
+        <v>-0.56840000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="E15">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="99.75">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>0.185</v>
+      </c>
+      <c r="C16">
+        <v>-0.60940000000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="E16">
+        <v>9.3600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="114">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>0.129</v>
+      </c>
+      <c r="C17">
+        <v>-0.64590000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="E17">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="99.75">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C18">
+        <v>-0.69320000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="E18">
+        <v>8.0799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85.5">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data_augmentation/Augmentation Experiment Results.xlsx
+++ b/data_augmentation/Augmentation Experiment Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstra\Documents\GitHub\nuclei\data_augmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3F4C23DB-DBB5-466B-A167-7F4BE30A73C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09BDF8AC-C9A7-4871-B836-9E0562876A1B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="210" activeTab="1" xr2:uid="{F804EED9-66D2-473B-B298-A3490873923A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -237,6 +237,39 @@
         iaa.Flipud(1.0),  # vertical flip
         iaa.Multiply((0.5, 1.5), per_channel=0.5),  # lighten or darken
     ])\</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+                iaa.Flipud(1.0),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                iaa.Affine(shear=(-20, 20)),
+                iaa.Affine(translate_px={"x": (-15, 15), "y": (-15, 15)})
+                ])</t>
+  </si>
+  <si>
+    <t>early stop at 30</t>
+  </si>
+  <si>
+    <t>?early stop at 35ish</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+        iaa.Fliplr(1.0),  # horizontal flip
+        iaa.Flipud(1.0),  # vertical flip
+        iaa.Affine(translate_px={"x": (-15, 15), "y": (-15, 15)}),  # lighten or darken
+    ])</t>
+  </si>
+  <si>
+    <t>early stop at 39</t>
+  </si>
+  <si>
+    <t>iaa.SomeOf((0, 2), [
+                iaa.Flipud(1.0),
+                iaa.Fliplr(1.0),
+                iaa.Multiply((0.5, 1.5), per_channel=0.5),
+                iaa.Affine(shear=(-20, 20)),
+                iaa.Affine(rotate=(-15, 15)),
+                ])</t>
   </si>
 </sst>
 </file>
@@ -627,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CF53CF-3DCD-471C-8B21-E7C555C740F5}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1021,10 +1054,36 @@
       <c r="C37">
         <v>0.58179999999999998</v>
       </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="85.5">
       <c r="A38" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="B38">
+        <v>0.1368</v>
+      </c>
+      <c r="C38">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="85.5">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE8C8E5-84A3-4B5D-8625-D454A46577A7}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1360,6 +1419,40 @@
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B19">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C19">
+        <v>-0.61680000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="E19">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="114">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>0.186</v>
+      </c>
+      <c r="C20">
+        <v>-0.6996</v>
+      </c>
+      <c r="D20">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="E20">
+        <v>7.22E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="114">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_augmentation/Augmentation Experiment Results.xlsx
+++ b/data_augmentation/Augmentation Experiment Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstra\Documents\GitHub\nuclei\data_augmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09BDF8AC-C9A7-4871-B836-9E0562876A1B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F75C0A22-E69F-4CAC-A67E-72F7DB4381D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="210" activeTab="1" xr2:uid="{F804EED9-66D2-473B-B298-A3490873923A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="210" xr2:uid="{F804EED9-66D2-473B-B298-A3490873923A}"/>
   </bookViews>
   <sheets>
     <sheet name="unet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Description</t>
   </si>
@@ -270,6 +270,12 @@
                 iaa.Affine(shear=(-20, 20)),
                 iaa.Affine(rotate=(-15, 15)),
                 ])</t>
+  </si>
+  <si>
+    <t>early stop at 49</t>
+  </si>
+  <si>
+    <t>50% iaa.CropAndPad(percent=(-0.2, 0.2))</t>
   </si>
 </sst>
 </file>
@@ -660,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CF53CF-3DCD-471C-8B21-E7C555C740F5}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1086,6 +1092,34 @@
         <v>53</v>
       </c>
     </row>
+    <row r="40" spans="1:4" ht="114">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.6784</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1096,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE8C8E5-84A3-4B5D-8625-D454A46577A7}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1453,6 +1487,18 @@
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B21">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C21">
+        <v>-0.70909999999999995</v>
+      </c>
+      <c r="D21">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="E21">
+        <v>7.1400000000000005E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
